--- a/escolas/luiz setti/9C.xlsx
+++ b/escolas/luiz setti/9C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\luis seti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\actteensprogram-automacao\escolas\luiz setti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401E136-5D98-4849-9F70-6015D224D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FEB63-5642-49FD-8B7D-4A0667862C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3435" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Vinicius Demetrio Alves</t>
+  </si>
+  <si>
+    <t>Walysom Henrique de Oliveira Demetrio</t>
+  </si>
+  <si>
+    <t>Welkie Rodrigues Teixeira</t>
+  </si>
+  <si>
+    <t>Gabriel Lima</t>
+  </si>
+  <si>
+    <t>Número responsável</t>
+  </si>
+  <si>
+    <t>Número aluno</t>
+  </si>
   <si>
     <t>Aluno</t>
   </si>
   <si>
+    <t>Antonio ADM</t>
+  </si>
+  <si>
+    <t>Pedro ADM</t>
+  </si>
+  <si>
     <t>Adriano Gonçalves Santos Junior</t>
   </si>
   <si>
@@ -107,15 +131,6 @@
   </si>
   <si>
     <t>Yasmin Vitória da Silva Ribeiro</t>
-  </si>
-  <si>
-    <t>Gabriel lima</t>
-  </si>
-  <si>
-    <t>Número responsável</t>
-  </si>
-  <si>
-    <t>Número aluno</t>
   </si>
 </sst>
 </file>
@@ -174,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -182,14 +197,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,309 +523,362 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5514997391223</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5514997391223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5543999284828</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5543998502569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5543991766160</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5543991837325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5543991957793</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5543991265490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9">
+        <v>5543996260616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5543996319578</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5543996638799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5543999623642</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5543996746972</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5543991586632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5543988537929</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5543988557241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5543996515635</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5543998136586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5543988124976</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5543988565256</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5543974009147</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5543988000055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9">
+        <v>5543988664448</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <v>5543996124089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
+        <v>5543991845008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9">
+        <v>5543999073856</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5543996261461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6">
-        <v>5514997391223</v>
-      </c>
-      <c r="C2" s="6">
-        <v>5514997391223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B23" s="9">
+        <v>5543999331522</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9">
+        <v>5543991341005</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5543984762582</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5514991232263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5541997019444</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5543999112652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="9">
+        <v>5543991795900</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5543991165572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9">
+        <v>5543996589331</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5543996105516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="9">
+        <v>5543999549181</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9">
+        <v>5543999601844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="6">
+        <v>5543999737024</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5543999676238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>5543999284828</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5543998502569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B32" s="6">
+        <v>5543991193203</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5543988242083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>5543991766160</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5543991837325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5543991957793</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5543991265490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <v>5543996260616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5543996319578</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5543996638799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5543999623642</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
+        <v>5543996606102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>5543996746972</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5543991586632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B34" s="2">
+        <v>554384356465</v>
+      </c>
+      <c r="C34" s="1">
+        <v>554384356465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>5543988537929</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5543988557241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>5543996515635</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5543998136586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>5543988124976</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5543988565256</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>5543974009147</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5543988000055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>5543988664448</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <v>5543996124089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>5543991845008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>5543999073856</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5543996261461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
-        <v>5543999331522</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
-        <v>5543991341005</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6">
-        <v>5543984762582</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5514991232263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6">
-        <v>5541997019444</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5543999112652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6">
-        <v>5543991795900</v>
-      </c>
-      <c r="C27" s="6">
-        <v>5543991165572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6">
-        <v>5543996589331</v>
-      </c>
-      <c r="C28" s="6">
-        <v>5543996105516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6">
-        <v>5543999549181</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6">
-        <v>5543999601844</v>
+      <c r="B35" s="2">
+        <v>5543996440402</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5543996440402</v>
       </c>
     </row>
   </sheetData>
